--- a/feed_me.xlsx
+++ b/feed_me.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +734,30 @@
         </is>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>hewy</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>hey douglas :)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
